--- a/CodeDojoMecânicas.xlsx
+++ b/CodeDojoMecânicas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Dropbox\Ensino\UNIPE\UNIPE 2016.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Documents\UnityProjects\Unity Projects 5.4.2\UnipeGameClub1_Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Elementos:</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Cria Cenario</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>Pontua</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Muito a esquerda</t>
+  </si>
+  <si>
+    <t>A cada metro</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,9 +625,6 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -638,13 +635,10 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -656,9 +650,6 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
@@ -670,9 +661,6 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -684,9 +672,6 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -746,10 +731,13 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -757,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -769,21 +757,24 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
